--- a/simulation_data/iterative_algorithm/i_error_level_1_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_1_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.91901419199519</v>
+        <v>89.9863137463326</v>
       </c>
       <c r="D2" t="n">
-        <v>1.560396652987662</v>
+        <v>1.195502489051489</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.73743542080733</v>
+        <v>88.78782591383163</v>
       </c>
       <c r="D3" t="n">
-        <v>1.528903354662973</v>
+        <v>1.471685949052863</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.97736959704214</v>
+        <v>87.9254951315223</v>
       </c>
       <c r="D4" t="n">
-        <v>1.489370547963992</v>
+        <v>1.471519000612129</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.92598775557067</v>
+        <v>86.959067805316</v>
       </c>
       <c r="D5" t="n">
-        <v>1.563217723877693</v>
+        <v>1.473777310592602</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.20091585467921</v>
+        <v>86.16420032783674</v>
       </c>
       <c r="D6" t="n">
-        <v>1.386681305830374</v>
+        <v>1.205949660581553</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.06360241217637</v>
+        <v>84.80522900676613</v>
       </c>
       <c r="D7" t="n">
-        <v>1.415234185991977</v>
+        <v>1.356689090063791</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.69605488196819</v>
+        <v>84.18293392723463</v>
       </c>
       <c r="D8" t="n">
-        <v>1.395726410466635</v>
+        <v>1.355013719804254</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.11881649129755</v>
+        <v>82.87113386237429</v>
       </c>
       <c r="D9" t="n">
-        <v>1.386011590040513</v>
+        <v>1.51147316485329</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.10189394505038</v>
+        <v>82.20024591138768</v>
       </c>
       <c r="D10" t="n">
-        <v>1.489942330628624</v>
+        <v>1.373845564742067</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.28154511655289</v>
+        <v>81.02811351640008</v>
       </c>
       <c r="D11" t="n">
-        <v>1.474588564112512</v>
+        <v>1.102468536882491</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.97771110500607</v>
+        <v>79.82646239948039</v>
       </c>
       <c r="D12" t="n">
-        <v>1.470794538452187</v>
+        <v>1.418425066521138</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.89168615594386</v>
+        <v>79.15596058857838</v>
       </c>
       <c r="D13" t="n">
-        <v>1.49972578593664</v>
+        <v>1.63879847102686</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.23231771595607</v>
+        <v>77.89546781681094</v>
       </c>
       <c r="D14" t="n">
-        <v>1.473203348271374</v>
+        <v>1.398161375880992</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.29725086303031</v>
+        <v>76.87318779579483</v>
       </c>
       <c r="D15" t="n">
-        <v>1.574902359859534</v>
+        <v>1.338906341856089</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.6889691180229</v>
+        <v>76.06126000312592</v>
       </c>
       <c r="D16" t="n">
-        <v>1.370802043525991</v>
+        <v>1.425480495209914</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.10455394899063</v>
+        <v>74.8371462359909</v>
       </c>
       <c r="D17" t="n">
-        <v>1.552046514949565</v>
+        <v>1.223629182230166</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.03166025115263</v>
+        <v>74.15903416293069</v>
       </c>
       <c r="D18" t="n">
-        <v>1.396898080658554</v>
+        <v>1.14824126697157</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.23545383957224</v>
+        <v>73.28817599029506</v>
       </c>
       <c r="D19" t="n">
-        <v>1.368997077272339</v>
+        <v>1.436220611774516</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.94608291879081</v>
+        <v>71.89640092876148</v>
       </c>
       <c r="D20" t="n">
-        <v>1.462910597798775</v>
+        <v>1.594678803994689</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.03489233492608</v>
+        <v>71.05628826341027</v>
       </c>
       <c r="D21" t="n">
-        <v>1.348512212643317</v>
+        <v>1.468022739061115</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.17397536407424</v>
+        <v>69.87536524583392</v>
       </c>
       <c r="D22" t="n">
-        <v>1.572068056690427</v>
+        <v>1.355055675622255</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.86018406700377</v>
+        <v>68.82186301400282</v>
       </c>
       <c r="D23" t="n">
-        <v>1.420190095637573</v>
+        <v>1.314361682791315</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.8392497882904</v>
+        <v>68.08921745314667</v>
       </c>
       <c r="D24" t="n">
-        <v>1.502199805086087</v>
+        <v>1.407625773298065</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.96897723759825</v>
+        <v>67.17456905213784</v>
       </c>
       <c r="D25" t="n">
-        <v>1.523614657862381</v>
+        <v>1.452476168639828</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.04655174463062</v>
+        <v>65.99321791492925</v>
       </c>
       <c r="D26" t="n">
-        <v>1.425912237526421</v>
+        <v>1.617697239474817</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.17683996950461</v>
+        <v>64.94246635276171</v>
       </c>
       <c r="D27" t="n">
-        <v>1.567046698923392</v>
+        <v>1.475674434592632</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.99588289319881</v>
+        <v>63.9921013610484</v>
       </c>
       <c r="D28" t="n">
-        <v>1.496986115618166</v>
+        <v>1.431166724506337</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.04815019013888</v>
+        <v>63.15438522171854</v>
       </c>
       <c r="D29" t="n">
-        <v>1.595959867860431</v>
+        <v>1.399224912910906</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.99430283863268</v>
+        <v>62.06588377646992</v>
       </c>
       <c r="D30" t="n">
-        <v>1.425844912626716</v>
+        <v>1.297290333508988</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.25078596188835</v>
+        <v>60.98041049836777</v>
       </c>
       <c r="D31" t="n">
-        <v>1.512931984944981</v>
+        <v>1.368455760169029</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.95774539611314</v>
+        <v>60.20734204356852</v>
       </c>
       <c r="D32" t="n">
-        <v>1.450035862161699</v>
+        <v>1.58723424735328</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.95316018419297</v>
+        <v>59.23724265254125</v>
       </c>
       <c r="D33" t="n">
-        <v>1.535975084048338</v>
+        <v>1.444996200708881</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.00261158183343</v>
+        <v>57.86288221747066</v>
       </c>
       <c r="D34" t="n">
-        <v>1.451464989982528</v>
+        <v>1.551046191241588</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.09607090582124</v>
+        <v>57.2631742451047</v>
       </c>
       <c r="D35" t="n">
-        <v>1.566238333672227</v>
+        <v>1.549772993689928</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.94231120608961</v>
+        <v>55.89035919873273</v>
       </c>
       <c r="D36" t="n">
-        <v>1.3671808739591</v>
+        <v>1.474567168533929</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.013755046657</v>
+        <v>55.14304332877564</v>
       </c>
       <c r="D37" t="n">
-        <v>1.503018689747031</v>
+        <v>1.367146721664009</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.03980538111941</v>
+        <v>54.16141479404388</v>
       </c>
       <c r="D38" t="n">
-        <v>1.495562226145087</v>
+        <v>1.411181341834203</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.87556586598742</v>
+        <v>52.71732736883509</v>
       </c>
       <c r="D39" t="n">
-        <v>1.514765391784543</v>
+        <v>1.227907347618273</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.18857925296923</v>
+        <v>52.14324527702414</v>
       </c>
       <c r="D40" t="n">
-        <v>1.646140489936115</v>
+        <v>1.263272513470358</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.96123219003682</v>
+        <v>50.95932282624073</v>
       </c>
       <c r="D41" t="n">
-        <v>1.456977659503828</v>
+        <v>1.455750503242427</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.85998890693563</v>
+        <v>50.09452801598417</v>
       </c>
       <c r="D42" t="n">
-        <v>1.256180967098953</v>
+        <v>1.548986014936214</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.17557217508153</v>
+        <v>49.15806787137185</v>
       </c>
       <c r="D43" t="n">
-        <v>1.445159390178881</v>
+        <v>1.566517981970113</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.19707743382089</v>
+        <v>47.79100692595507</v>
       </c>
       <c r="D44" t="n">
-        <v>1.497649889719512</v>
+        <v>1.418900511938942</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.00955479629859</v>
+        <v>47.06008445318622</v>
       </c>
       <c r="D45" t="n">
-        <v>1.588025968477067</v>
+        <v>1.360489414614301</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.21550890358142</v>
+        <v>45.87426024309536</v>
       </c>
       <c r="D46" t="n">
-        <v>1.382933605598186</v>
+        <v>1.463279732591394</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.10499048630467</v>
+        <v>44.99981689783889</v>
       </c>
       <c r="D47" t="n">
-        <v>1.446013994008202</v>
+        <v>1.485116920105837</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.87875836251195</v>
+        <v>44.09255620613834</v>
       </c>
       <c r="D48" t="n">
-        <v>1.506791551491585</v>
+        <v>1.415811446441568</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.21592253483158</v>
+        <v>42.92265095575297</v>
       </c>
       <c r="D49" t="n">
-        <v>1.52276953822752</v>
+        <v>1.453715317220248</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.0294236247404</v>
+        <v>42.22417892578016</v>
       </c>
       <c r="D50" t="n">
-        <v>1.597786422127926</v>
+        <v>1.490897221439201</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.8785519531773</v>
+        <v>41.27750011266055</v>
       </c>
       <c r="D51" t="n">
-        <v>1.471417941209652</v>
+        <v>1.31645957010827</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.91384045404867</v>
+        <v>39.80445974654811</v>
       </c>
       <c r="D52" t="n">
-        <v>1.531842085214072</v>
+        <v>1.49225391451134</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.91133011264807</v>
+        <v>38.73044672819564</v>
       </c>
       <c r="D53" t="n">
-        <v>1.646400029025839</v>
+        <v>1.508608134790556</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.99049702588865</v>
+        <v>38.02896843754074</v>
       </c>
       <c r="D54" t="n">
-        <v>1.489997845674875</v>
+        <v>1.433584194437315</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.10880687217673</v>
+        <v>37.08784885755657</v>
       </c>
       <c r="D55" t="n">
-        <v>1.561509315639136</v>
+        <v>1.575542195913228</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.04847148584386</v>
+        <v>36.05933634288328</v>
       </c>
       <c r="D56" t="n">
-        <v>1.391275951301321</v>
+        <v>1.472490642353864</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.00157728149338</v>
+        <v>35.13864604662434</v>
       </c>
       <c r="D57" t="n">
-        <v>1.378156791134439</v>
+        <v>1.503471872299981</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.12354468388062</v>
+        <v>33.85600062260679</v>
       </c>
       <c r="D58" t="n">
-        <v>1.42596921833436</v>
+        <v>1.501524671479021</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.97329725207613</v>
+        <v>32.86801022550036</v>
       </c>
       <c r="D59" t="n">
-        <v>1.492712425344979</v>
+        <v>1.484877713463245</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.20787176607555</v>
+        <v>32.10322560471862</v>
       </c>
       <c r="D60" t="n">
-        <v>1.271164283111382</v>
+        <v>1.615799970076332</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.88440497842</v>
+        <v>30.69963678108015</v>
       </c>
       <c r="D61" t="n">
-        <v>1.536973319686062</v>
+        <v>1.62159172155546</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.84701757250188</v>
+        <v>30.04496927221492</v>
       </c>
       <c r="D62" t="n">
-        <v>1.781060939138001</v>
+        <v>1.575882706439514</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.03252485632832</v>
+        <v>28.96181636847952</v>
       </c>
       <c r="D63" t="n">
-        <v>1.575920512982669</v>
+        <v>1.225877853345872</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.98449311357265</v>
+        <v>28.12765117956771</v>
       </c>
       <c r="D64" t="n">
-        <v>1.464376850772897</v>
+        <v>1.495213720130115</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.72501672673843</v>
+        <v>26.96643736258449</v>
       </c>
       <c r="D65" t="n">
-        <v>1.466655133926215</v>
+        <v>1.624734823294618</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.89875340234426</v>
+        <v>25.89880207432353</v>
       </c>
       <c r="D66" t="n">
-        <v>1.596357779538454</v>
+        <v>1.432607525730569</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.06111062760851</v>
+        <v>25.24057949861802</v>
       </c>
       <c r="D67" t="n">
-        <v>1.557466382909634</v>
+        <v>1.527258996621147</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.83486601460639</v>
+        <v>23.81189171572639</v>
       </c>
       <c r="D68" t="n">
-        <v>1.632558344899015</v>
+        <v>1.628832839804402</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.01978265385315</v>
+        <v>23.08216203687731</v>
       </c>
       <c r="D69" t="n">
-        <v>1.486525126902744</v>
+        <v>1.49990789516734</v>
       </c>
     </row>
   </sheetData>
